--- a/data_excel/211.xlsx
+++ b/data_excel/211.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>小傑</t>
   </si>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +504,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -545,7 +549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -565,7 +569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -578,8 +582,8 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -607,7 +611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -618,12 +622,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -692,7 +696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -703,12 +707,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
